--- a/demomilk/uploads/Supplier_Master (5).xlsx
+++ b/demomilk/uploads/Supplier_Master (5).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Address</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>sharad@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,6 +548,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
